--- a/src/test/resources/test-file/test-auto-mapping.xlsx
+++ b/src/test/resources/test-file/test-auto-mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35040" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="46240" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Map 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Text/ Tex /Ac / 重排 ／1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,6 +164,26 @@
   </si>
   <si>
     <t>LocalDate null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,10 +191,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -314,7 +324,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -322,9 +332,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -340,13 +347,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -640,200 +641,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="27.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="23.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="35.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="41.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="4" customWidth="1"/>
+    <col min="3" max="8" width="27.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="23.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="35.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="1" customWidth="1"/>
+    <col min="21" max="22" width="9" style="1"/>
+    <col min="23" max="23" width="33.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="36" style="1" customWidth="1"/>
+    <col min="26" max="26" width="36.5" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="6">
+        <v>42736</v>
+      </c>
+      <c r="J3" s="7">
+        <v>42736</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
-    <row r="3" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="8">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7">
-        <v>42736</v>
-      </c>
-      <c r="H3" s="9">
-        <v>42736</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F7" s="11"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
